--- a/excel/class_notes/Named Ranges and Defined Names in Excel.xlsx
+++ b/excel/class_notes/Named Ranges and Defined Names in Excel.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data_science_\excel\class_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB7AB5B-26CF-4F95-819A-DCC5E4548972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D810B3-A684-4BAC-AEAA-19148F737C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{312D397B-99C6-4513-9BC2-E7552FC4F2E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{312D397B-99C6-4513-9BC2-E7552FC4F2E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="name range" sheetId="2" r:id="rId2"/>
     <sheet name="define range" sheetId="3" r:id="rId3"/>
+    <sheet name="array_indirect" sheetId="4" r:id="rId4"/>
+    <sheet name="offset" sheetId="5" r:id="rId5"/>
+    <sheet name="data validations" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="if_ana" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="demo">0.1</definedName>
+    <definedName name="Discount_Rate">'define range'!$C$2</definedName>
+    <definedName name="DiscountRate">0.1</definedName>
+    <definedName name="Sales">'name range'!$D$2:$D$4</definedName>
+    <definedName name="Salesdata">'name range'!$D$2:$D$4</definedName>
+    <definedName name="TaxData">'name range'!$E$2:$E$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +48,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
   <si>
     <t>### Named Ranges and Defined Names in Excel</t>
   </si>
@@ -297,13 +332,127 @@
   </si>
   <si>
     <t>Final Price</t>
+  </si>
+  <si>
+    <t>D6A16:E125</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <r>
+      <t>Definition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: INDIRECT returns the reference specified by a text string.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Array Formulas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Use =SUM(B1:B3 * C1:C3) and press Ctrl+Shift+Enter to calculate total sales for all products.</t>
+  </si>
+  <si>
+    <r>
+      <t>Explanation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Start at A1, move 0 rows down and 2 columns to the right. The result is the value in C1, which is 3.</t>
+    </r>
+  </si>
+  <si>
+    <t>OFFSET(A1, 0, 2)</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>indirect</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ewe</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>drop down</t>
+  </si>
+  <si>
+    <t>A2&gt;100</t>
+  </si>
+  <si>
+    <t>Sales ($)</t>
+  </si>
+  <si>
+    <t>Cost ($)</t>
+  </si>
+  <si>
+    <t>Profit ($)</t>
+  </si>
+  <si>
+    <t>Units Sold</t>
+  </si>
+  <si>
+    <t>Target Profit ($)</t>
+  </si>
+  <si>
+    <t>Product A</t>
+  </si>
+  <si>
+    <t>Product B</t>
+  </si>
+  <si>
+    <t>Product C</t>
+  </si>
+  <si>
+    <t>Product D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,13 +468,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -340,12 +539,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -665,7 +893,7 @@
   <dimension ref="A1:A138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A138"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,6 +941,11 @@
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1155,7 +1388,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,7 +1429,10 @@
       <c r="E2" s="2">
         <v>0.05</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" cm="1">
+        <f t="array" ref="F2:F4">Salesdata * (1 + TaxData)</f>
+        <v>52.5</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1214,7 +1450,9 @@
       <c r="E3" s="2">
         <v>0.05</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>58.800000000000004</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1232,7 +1470,9 @@
       <c r="E4" s="2">
         <v>0.05</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>37.800000000000004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1241,15 +1481,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB63F6F-06F8-473F-AAA6-9692B47F0DC5}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -1263,7 +1503,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -1273,9 +1513,16 @@
       <c r="C2" s="2">
         <v>0.1</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" cm="1">
+        <f t="array" ref="D2">B2 * (1 - DiscountRate)</f>
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <f>1*demo</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
@@ -1285,9 +1532,12 @@
       <c r="C3" s="2">
         <v>0.15</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" cm="1">
+        <f t="array" ref="D3">B3 * (1 - DiscountRate)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>84</v>
       </c>
@@ -1297,7 +1547,376 @@
       <c r="C4" s="2">
         <v>0.2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" cm="1">
+        <f t="array" ref="D4">B4 * (1 - DiscountRate)</f>
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CC388E-59BE-4BBA-81CF-50C874029A82}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="e" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">INDIRECT("A")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="e" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">INDIRECT(B2)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="5">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(C2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(C3)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB654319-E8D8-4552-9549-13B9658986FF}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="E10" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f ca="1">OFFSET(A1, 0, 2)</f>
+        <v>C</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04662231-F33E-424B-A738-144BD9977D35}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:C1048576 E1:XFD1048576 D1:D7 D9:D1048576" xr:uid="{67F1820D-D1CE-4367-ADA4-EAF0DB1C235B}">
+      <formula1>D5</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{A3B9BD09-2FC0-4B8A-85DC-E8D13B06BF7D}">
+      <formula1>D5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD2A854-3CF3-410F-9040-090CA63ED305}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{E7C9519D-54FB-47A5-B291-465FDDB8A6D8}">
+      <formula1>"A1&gt;100"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80220FA7-8952-41F9-89EA-7C5B09A4FBB9}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="13">
+        <v>6000</v>
+      </c>
+      <c r="D2" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500</v>
+      </c>
+      <c r="F2" s="13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="13">
+        <v>15000</v>
+      </c>
+      <c r="C3" s="13">
+        <v>9000</v>
+      </c>
+      <c r="D3" s="13">
+        <v>6000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>600</v>
+      </c>
+      <c r="F3" s="13">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="13">
+        <v>20000</v>
+      </c>
+      <c r="C4" s="13">
+        <v>12000</v>
+      </c>
+      <c r="D4" s="13">
+        <v>8000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>700</v>
+      </c>
+      <c r="F4" s="13">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="13">
+        <v>25000</v>
+      </c>
+      <c r="C5" s="13">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="13">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>800</v>
+      </c>
+      <c r="F5" s="13">
+        <v>11000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
